--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36715FD-4BC8-46EF-8507-B7E1822A818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B8CCA-7B37-4B6A-BCC0-02ECD9F21543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>register(s)</t>
   </si>
@@ -102,12 +102,6 @@
     <t>FLAG</t>
   </si>
   <si>
-    <t>FLAG_ENC_RESET</t>
-  </si>
-  <si>
-    <t>FLAG_MOTOR_POWER</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -238,6 +232,15 @@
   </si>
   <si>
     <t>Motor 2 speed, in ticks/s</t>
+  </si>
+  <si>
+    <t>flag_enable</t>
+  </si>
+  <si>
+    <t>flag_motor_power</t>
+  </si>
+  <si>
+    <t>flag_enc_reset</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -456,15 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +789,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,27 +828,29 @@
         <v>24</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="16"/>
+      <c r="F2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -854,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -874,43 +879,43 @@
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="43"/>
+        <v>42</v>
+      </c>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="43"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
@@ -920,75 +925,75 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="43"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1002,16 +1007,16 @@
       <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
@@ -1027,9 +1032,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
@@ -1043,9 +1048,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
@@ -1057,105 +1062,105 @@
         <v>7</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1163,7 +1168,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1171,7 +1176,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1179,7 +1184,7 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1187,7 +1192,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1195,7 +1200,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1203,7 +1208,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1211,13 +1216,13 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="7"/>
       <c r="F27" s="9"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1226,13 +1231,13 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
+      <c r="A29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
+      <c r="A30" s="37"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1241,13 +1246,13 @@
       <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
+      <c r="A32" s="37"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
+      <c r="A33" s="37"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1256,13 +1261,13 @@
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
+      <c r="A35" s="37"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
+      <c r="A36" s="37"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1271,7 +1276,7 @@
       <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1280,7 +1285,7 @@
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1289,7 +1294,7 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1298,7 +1303,7 @@
       <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1307,7 +1312,7 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1316,7 +1321,7 @@
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1325,7 +1330,7 @@
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1334,7 +1339,7 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="29"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>

--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B8CCA-7B37-4B6A-BCC0-02ECD9F21543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C14224-D29C-427B-9D4F-FA9CB956000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>register(s)</t>
   </si>
@@ -78,18 +78,12 @@
     <t>Encoders</t>
   </si>
   <si>
-    <t>REG_MOTOR_MODE</t>
-  </si>
-  <si>
     <t>byte</t>
   </si>
   <si>
     <t>REG_MAX_SPEED</t>
   </si>
   <si>
-    <t>Max motor speed in encoder ticks/s</t>
-  </si>
-  <si>
     <t>Writing non-zero value causes both encoders to reset</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Kp*10^7</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>REG_STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: 0 - disabled, 1 - enabeld, 2 - error </t>
-  </si>
-  <si>
     <t>28-29</t>
   </si>
   <si>
@@ -241,6 +229,27 @@
   </si>
   <si>
     <t>flag_enc_reset</t>
+  </si>
+  <si>
+    <t>REG_PID_MODE</t>
+  </si>
+  <si>
+    <t>Status. Bit0 is motor1, bit1 is motor2. If motor is disabled, corresponding bit is set; otherwise, bit=0</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>REG_REVERSE</t>
+  </si>
+  <si>
+    <t>Bit0: should readings of encoder 0 be reversed? Bit2: same for encoder2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_SPEED1, low byte is at address 32, and high byte, at address 33.  Encoder value registers REG_ENCODER* are special: they need to be read one at a time, so you can not read all 8 bytes in one reading. </t>
+  </si>
+  <si>
+    <t>Max motor speed in encoder ticks/s. Required for PID</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,18 +300,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -328,6 +343,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -379,41 +487,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -421,14 +499,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -439,27 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -468,6 +537,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,584 +894,433 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="3"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1"/>
-    <col min="6" max="6" width="55.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="50.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="55.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G3" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G4" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
+      <c r="F21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="45"/>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="31"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="31"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
+      <c r="G22" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C14224-D29C-427B-9D4F-FA9CB956000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523CAA5-2345-4C89-AE65-B1E58600C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>12-13</t>
   </si>
   <si>
-    <t>34-35</t>
-  </si>
-  <si>
     <t>Kp*10^7</t>
   </si>
   <si>
@@ -183,15 +180,6 @@
     <t>REG_STATUS</t>
   </si>
   <si>
-    <t>28-29</t>
-  </si>
-  <si>
-    <t>30-31</t>
-  </si>
-  <si>
-    <t>32-33</t>
-  </si>
-  <si>
     <t>REG_ENCODER1</t>
   </si>
   <si>
@@ -250,6 +238,18 @@
   </si>
   <si>
     <t>Max motor speed in encoder ticks/s. Required for PID</t>
+  </si>
+  <si>
+    <t>28-31</t>
+  </si>
+  <si>
+    <t>32-35</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>38-39</t>
   </si>
 </sst>
 </file>
@@ -520,6 +520,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -529,6 +565,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -537,45 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,7 +914,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -951,47 +951,47 @@
       <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="40"/>
+        <v>44</v>
+      </c>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
@@ -1007,9 +1007,9 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="41"/>
+        <v>70</v>
+      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
@@ -1025,9 +1025,9 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="41"/>
+        <v>39</v>
+      </c>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
@@ -1045,7 +1045,7 @@
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -1063,11 +1063,11 @@
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>1</v>
@@ -1081,7 +1081,7 @@
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -1091,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1111,36 +1111,36 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="43"/>
+        <v>68</v>
+      </c>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>1</v>
@@ -1154,12 +1154,12 @@
       <c r="F14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="44" t="s">
-        <v>67</v>
+      <c r="G14" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1177,10 +1177,10 @@
       <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>24</v>
       </c>
@@ -1194,10 +1194,10 @@
       <c r="F16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
@@ -1211,12 +1211,12 @@
         <v>7</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
@@ -1224,93 +1224,93 @@
         <v>5</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="45"/>
+        <v>65</v>
+      </c>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="40"/>
+        <v>57</v>
+      </c>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="10" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="45"/>
+        <v>60</v>
+      </c>
+      <c r="G22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523CAA5-2345-4C89-AE65-B1E58600C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69BCEDD-2ACF-412F-A315-EF282FE4A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15120" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>register(s)</t>
   </si>
@@ -84,15 +84,9 @@
     <t>REG_MAX_SPEED</t>
   </si>
   <si>
-    <t>Writing non-zero value causes both encoders to reset</t>
-  </si>
-  <si>
     <t>8-9</t>
   </si>
   <si>
-    <t>REG_ENC_RESET</t>
-  </si>
-  <si>
     <t>FLAG</t>
   </si>
   <si>
@@ -216,16 +210,10 @@
     <t>flag_motor_power</t>
   </si>
   <si>
-    <t>flag_enc_reset</t>
-  </si>
-  <si>
     <t>REG_PID_MODE</t>
   </si>
   <si>
     <t>Status. Bit0 is motor1, bit1 is motor2. If motor is disabled, corresponding bit is set; otherwise, bit=0</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>REG_REVERSE</t>
@@ -273,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +298,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -440,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -511,15 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -531,9 +504,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -894,45 +864,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="24.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="55.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="3"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="1"/>
+    <col min="6" max="6" width="55.6328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -951,51 +921,51 @@
       <c r="F3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>1</v>
@@ -1007,317 +977,296 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="40"/>
+      <c r="B16" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="41"/>
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="36"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="F19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
       <c r="B20" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="37"/>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69BCEDD-2ACF-412F-A315-EF282FE4A98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A3752-6A21-4A69-9CF3-5ED848C23035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15120" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="430" windowWidth="15120" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>Bit0: should readings of encoder 0 be reversed? Bit2: same for encoder2</t>
   </si>
   <si>
-    <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_SPEED1, low byte is at address 32, and high byte, at address 33.  Encoder value registers REG_ENCODER* are special: they need to be read one at a time, so you can not read all 8 bytes in one reading. </t>
-  </si>
-  <si>
     <t>Max motor speed in encoder ticks/s. Required for PID</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>38-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_POWER1, low byte is at address 12, and high byte, at address 13. </t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -1188,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>5</v>
@@ -1207,7 +1207,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>5</v>
@@ -1226,7 +1226,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>5</v>
@@ -1245,7 +1245,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
       <c r="B21" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>5</v>

--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A3752-6A21-4A69-9CF3-5ED848C23035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DF3A8-7DCD-40D4-9FA0-C969B4230FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="430" windowWidth="15120" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="16740" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>REG_ENABLE</t>
   </si>
   <si>
-    <t>write 1 to enable motor drivers, 0 to disable</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_POWER1, low byte is at address 12, and high byte, at address 13. </t>
+  </si>
+  <si>
+    <t>Bit0 is motor1, bit1 is motor2. set bit to 1 to enable motor driver, to 0 to disable</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -925,9 +925,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -953,13 +953,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="25"/>
     </row>
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="26"/>
     </row>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>1</v>
@@ -1061,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1081,29 +1081,29 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="27"/>
     </row>
@@ -1160,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="25"/>
     </row>
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="28"/>
     </row>
@@ -1188,76 +1188,76 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
       <c r="B21" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="28"/>
     </row>

--- a/firmware/registers.xlsx
+++ b/firmware/registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuri\Dropbox\Robotics\github\motor-driver\firmware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/motor-driver/firmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9DF3A8-7DCD-40D4-9FA0-C969B4230FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12586E77-62F4-6746-8554-24EA92E36C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16740" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14420" yWindow="500" windowWidth="22840" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>register(s)</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Firmware version - major</t>
   </si>
   <si>
-    <t>REG_WHO_AM_I</t>
-  </si>
-  <si>
     <t>int32</t>
   </si>
   <si>
     <t>int16</t>
   </si>
   <si>
-    <t>uint16</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -87,24 +81,6 @@
     <t>8-9</t>
   </si>
   <si>
-    <t>FLAG</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
@@ -162,12 +138,6 @@
     <t>Right motor power, -1000…1000</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0x54 (used for testing connection)</t>
-  </si>
-  <si>
     <t>REG_STATUS</t>
   </si>
   <si>
@@ -201,18 +171,9 @@
     <t>Motor 2 speed, in ticks/s</t>
   </si>
   <si>
-    <t>flag_enable</t>
-  </si>
-  <si>
-    <t>flag_motor_power</t>
-  </si>
-  <si>
     <t>REG_PID_MODE</t>
   </si>
   <si>
-    <t>Status. Bit0 is motor1, bit1 is motor2. If motor is disabled, corresponding bit is set; otherwise, bit=0</t>
-  </si>
-  <si>
     <t>REG_REVERSE</t>
   </si>
   <si>
@@ -225,6 +186,45 @@
     <t>28-31</t>
   </si>
   <si>
+    <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_POWER1, low byte is at address 12, and high byte, at address 13. </t>
+  </si>
+  <si>
+    <t>Bit0 is motor1, bit1 is motor2. set bit to 1 to enable motor driver, to 0 to disable</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Motor ID</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>REG_CURRENT1</t>
+  </si>
+  <si>
+    <t>REG_CURRENT2</t>
+  </si>
+  <si>
+    <t>Current through motor 1, in mA</t>
+  </si>
+  <si>
+    <t>Current through motor 2, in mA</t>
+  </si>
+  <si>
     <t>32-35</t>
   </si>
   <si>
@@ -234,10 +234,22 @@
     <t>38-39</t>
   </si>
   <si>
-    <t xml:space="preserve">Register list. All multibyte registers use little-endian encoding; e.g. for register REG_POWER1, low byte is at address 12, and high byte, at address 13. </t>
-  </si>
-  <si>
-    <t>Bit0 is motor1, bit1 is motor2. set bit to 1 to enable motor driver, to 0 to disable</t>
+    <t>REG_MOTOR_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status. For motor1: bit0 =1 if there is an error on motor1 . bit1: same for  motor2 </t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>16-17</t>
   </si>
 </sst>
 </file>
@@ -299,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -346,17 +358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -376,53 +377,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -442,110 +401,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,9 +491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,7 +531,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -711,7 +637,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,7 +779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,409 +790,429 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="3"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="24.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1"/>
-    <col min="6" max="6" width="55.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="55.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="27" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A14:A17"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
